--- a/NatmiData/natmiOut_TPM/YoungD7/LR-pairs_lrc2p/Mstn-Acvr2b.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD7/LR-pairs_lrc2p/Mstn-Acvr2b.xlsx
@@ -549,34 +549,34 @@
         <v>0.86759147243462</v>
       </c>
       <c r="K2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L2">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M2">
-        <v>1.047294333333333</v>
+        <v>2.110264333333333</v>
       </c>
       <c r="N2">
-        <v>3.141883</v>
+        <v>6.330793</v>
       </c>
       <c r="O2">
-        <v>0.2943898468263134</v>
+        <v>0.3832041185227171</v>
       </c>
       <c r="P2">
-        <v>0.2943898468263134</v>
+        <v>0.3832041185227171</v>
       </c>
       <c r="Q2">
-        <v>0.4023237037197778</v>
+        <v>0.8106692983931111</v>
       </c>
       <c r="R2">
-        <v>3.620913333478</v>
+        <v>7.296023685538</v>
       </c>
       <c r="S2">
-        <v>0.2554101206778435</v>
+        <v>0.3324646254321348</v>
       </c>
       <c r="T2">
-        <v>0.2554101206778435</v>
+        <v>0.3324646254321347</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -623,10 +623,10 @@
         <v>1.56316</v>
       </c>
       <c r="O3">
-        <v>0.1464658082318852</v>
+        <v>0.0946183755984393</v>
       </c>
       <c r="P3">
-        <v>0.1464658082318852</v>
+        <v>0.0946183755984393</v>
       </c>
       <c r="Q3">
         <v>0.2001654169511111</v>
@@ -635,10 +635,10 @@
         <v>1.80148875256</v>
       </c>
       <c r="S3">
-        <v>0.1270724862252279</v>
+        <v>0.08209009580482188</v>
       </c>
       <c r="T3">
-        <v>0.1270724862252279</v>
+        <v>0.08209009580482188</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -679,28 +679,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>1.622562</v>
+        <v>2.065388333333333</v>
       </c>
       <c r="N4">
-        <v>4.867686</v>
+        <v>6.196165</v>
       </c>
       <c r="O4">
-        <v>0.4560950665376751</v>
+        <v>0.3750550597762889</v>
       </c>
       <c r="P4">
-        <v>0.4560950665376751</v>
+        <v>0.3750550597762889</v>
       </c>
       <c r="Q4">
-        <v>0.623315845964</v>
+        <v>0.7934299436544445</v>
       </c>
       <c r="R4">
-        <v>5.609842613676</v>
+        <v>7.140869492889999</v>
       </c>
       <c r="S4">
-        <v>0.3957041903475876</v>
+        <v>0.3253945715553649</v>
       </c>
       <c r="T4">
-        <v>0.3957041903475875</v>
+        <v>0.3253945715553649</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -741,28 +741,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>0.3665986666666667</v>
+        <v>0.8101876666666666</v>
       </c>
       <c r="N5">
-        <v>1.099796</v>
+        <v>2.430563</v>
       </c>
       <c r="O5">
-        <v>0.1030492784041265</v>
+        <v>0.1471224461025547</v>
       </c>
       <c r="P5">
-        <v>0.1030492784041265</v>
+        <v>0.1471224461025547</v>
       </c>
       <c r="Q5">
-        <v>0.1408308329928889</v>
+        <v>0.3112379131508889</v>
       </c>
       <c r="R5">
-        <v>1.267477496936</v>
+        <v>2.801141218358</v>
       </c>
       <c r="S5">
-        <v>0.08940467518396121</v>
+        <v>0.1276421796422985</v>
       </c>
       <c r="T5">
-        <v>0.0894046751839612</v>
+        <v>0.1276421796422985</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -785,7 +785,7 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G6">
-        <v>0.05862833333333333</v>
+        <v>0.05862833333333334</v>
       </c>
       <c r="H6">
         <v>0.175885</v>
@@ -797,34 +797,34 @@
         <v>0.1324085275653799</v>
       </c>
       <c r="K6">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L6">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M6">
-        <v>1.047294333333333</v>
+        <v>2.110264333333333</v>
       </c>
       <c r="N6">
-        <v>3.141883</v>
+        <v>6.330793</v>
       </c>
       <c r="O6">
-        <v>0.2943898468263134</v>
+        <v>0.3832041185227171</v>
       </c>
       <c r="P6">
-        <v>0.2943898468263134</v>
+        <v>0.3832041185227171</v>
       </c>
       <c r="Q6">
-        <v>0.06140112127277778</v>
+        <v>0.1237212807561111</v>
       </c>
       <c r="R6">
-        <v>0.552610091455</v>
+        <v>1.113491526805</v>
       </c>
       <c r="S6">
-        <v>0.0389797261484699</v>
+        <v>0.0507394930905823</v>
       </c>
       <c r="T6">
-        <v>0.03897972614846989</v>
+        <v>0.0507394930905823</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -847,7 +847,7 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G7">
-        <v>0.05862833333333333</v>
+        <v>0.05862833333333334</v>
       </c>
       <c r="H7">
         <v>0.175885</v>
@@ -871,10 +871,10 @@
         <v>1.56316</v>
       </c>
       <c r="O7">
-        <v>0.1464658082318852</v>
+        <v>0.0946183755984393</v>
       </c>
       <c r="P7">
-        <v>0.1464658082318852</v>
+        <v>0.0946183755984393</v>
       </c>
       <c r="Q7">
         <v>0.03054848851111111</v>
@@ -883,10 +883,10 @@
         <v>0.2749363966</v>
       </c>
       <c r="S7">
-        <v>0.01939332200665722</v>
+        <v>0.01252827979361742</v>
       </c>
       <c r="T7">
-        <v>0.01939332200665721</v>
+        <v>0.01252827979361742</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -909,7 +909,7 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G8">
-        <v>0.05862833333333333</v>
+        <v>0.05862833333333334</v>
       </c>
       <c r="H8">
         <v>0.175885</v>
@@ -927,28 +927,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>1.622562</v>
+        <v>2.065388333333333</v>
       </c>
       <c r="N8">
-        <v>4.867686</v>
+        <v>6.196165</v>
       </c>
       <c r="O8">
-        <v>0.4560950665376751</v>
+        <v>0.3750550597762889</v>
       </c>
       <c r="P8">
-        <v>0.4560950665376751</v>
+        <v>0.3750550597762889</v>
       </c>
       <c r="Q8">
-        <v>0.09512810579</v>
+        <v>0.1210902756694445</v>
       </c>
       <c r="R8">
-        <v>0.85615295211</v>
+        <v>1.089812481025</v>
       </c>
       <c r="S8">
-        <v>0.06039087619008755</v>
+        <v>0.04966048822092397</v>
       </c>
       <c r="T8">
-        <v>0.06039087619008753</v>
+        <v>0.04966048822092397</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -971,7 +971,7 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G9">
-        <v>0.05862833333333333</v>
+        <v>0.05862833333333334</v>
       </c>
       <c r="H9">
         <v>0.175885</v>
@@ -989,28 +989,28 @@
         <v>1</v>
       </c>
       <c r="M9">
-        <v>0.3665986666666667</v>
+        <v>0.8101876666666666</v>
       </c>
       <c r="N9">
-        <v>1.099796</v>
+        <v>2.430563</v>
       </c>
       <c r="O9">
-        <v>0.1030492784041265</v>
+        <v>0.1471224461025547</v>
       </c>
       <c r="P9">
-        <v>0.1030492784041265</v>
+        <v>0.1471224461025547</v>
       </c>
       <c r="Q9">
-        <v>0.02149306882888889</v>
+        <v>0.04749995258388889</v>
       </c>
       <c r="R9">
-        <v>0.19343761946</v>
+        <v>0.427499573255</v>
       </c>
       <c r="S9">
-        <v>0.0136446032201653</v>
+        <v>0.01948026646025624</v>
       </c>
       <c r="T9">
-        <v>0.01364460322016529</v>
+        <v>0.01948026646025624</v>
       </c>
     </row>
   </sheetData>
